--- a/target/classes/Form_Data.xlsx
+++ b/target/classes/Form_Data.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="17430" windowHeight="4965"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="17805" windowHeight="4470"/>
   </bookViews>
   <sheets>
-    <sheet name="New_Org_data" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="eOasis_Credentials" sheetId="2" r:id="rId1"/>
+    <sheet name="TC42404" sheetId="1" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:Q13"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Address_Line1</t>
   </si>
@@ -50,13 +50,25 @@
   </si>
   <si>
     <t>Area_code</t>
+  </si>
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>vthorat</t>
+  </si>
+  <si>
+    <t>M@G580746</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -72,16 +84,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -89,21 +115,128 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -403,10 +536,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -417,61 +589,49 @@
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="5">
         <v>471</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="6" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
